--- a/VMware.xlsx
+++ b/VMware.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdominic\Documents\GitHub\AutomatedESX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72E810-70F3-4EF1-8065-AEE0E96D0B32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D75B2B-5A9B-40FD-A7B3-6411911E424A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37FD85C8-E03F-45AA-A508-710383BBFE16}"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
   </bookViews>
   <sheets>
     <sheet name="ESXHosts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>ESXHostname</t>
   </si>
@@ -57,6 +57,9 @@
     <t>HostGW</t>
   </si>
   <si>
+    <t>HostMgmtVLAN</t>
+  </si>
+  <si>
     <t>HostDNS1</t>
   </si>
   <si>
@@ -84,52 +87,73 @@
     <t>ListOfPhysicalDrives</t>
   </si>
   <si>
+    <t>esx01.tataoui.com</t>
+  </si>
+  <si>
     <t>255.255.255.0</t>
   </si>
   <si>
     <t>192.168.10.2</t>
   </si>
   <si>
-    <t>VMware1!</t>
+    <t>192.168.30.2</t>
+  </si>
+  <si>
+    <t>192.168.30.3</t>
+  </si>
+  <si>
+    <t>tataoui.com</t>
+  </si>
+  <si>
+    <t>dwcadmin</t>
+  </si>
+  <si>
+    <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
+  </si>
+  <si>
+    <t>esx02.tataoui.com</t>
+  </si>
+  <si>
+    <t>esx03.tataoui.com</t>
   </si>
   <si>
     <t>mpx.vmhba33:C0:T0:L0</t>
   </si>
   <si>
-    <t>192.168.10.40</t>
-  </si>
-  <si>
-    <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
-  </si>
-  <si>
-    <t>localadmin</t>
-  </si>
-  <si>
-    <t>vmware.com</t>
-  </si>
-  <si>
-    <t>esx01.vmware.com</t>
-  </si>
-  <si>
-    <t>esx02.vmware.com</t>
-  </si>
-  <si>
-    <t>esx03.vmware.com</t>
+    <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HGST-HDD_VSAN</t>
+  </si>
+  <si>
+    <t>SATA_SSD-SSD_VM_AD Samsung-SSD_VM_VMware TOSHIBA-HDD_VM</t>
+  </si>
+  <si>
+    <t>esx04.tataoui.com</t>
+  </si>
+  <si>
+    <t>esx05.tataoui.com</t>
+  </si>
+  <si>
+    <t>SATA_SSD-SSD_VM Samsung_SSD_980-SSD_VCF Samsung_SSD_860-SSD_VSAN HITACHI-HDD_VSAN</t>
+  </si>
+  <si>
+    <t>192.168.10.11</t>
+  </si>
+  <si>
+    <t>192.168.10.12</t>
+  </si>
+  <si>
+    <t>192.168.10.13</t>
+  </si>
+  <si>
+    <t>192.168.10.14</t>
+  </si>
+  <si>
+    <t>192.168.10.15</t>
+  </si>
+  <si>
+    <t>VMware123!</t>
   </si>
   <si>
     <t>192.168.10.10</t>
-  </si>
-  <si>
-    <t>192.168.10.11</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
-    <t>192.168.10.4</t>
-  </si>
-  <si>
-    <t>192.168.10.5</t>
   </si>
 </sst>
 </file>
@@ -615,23 +639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF4D2D9-3BDE-4D26-BC1F-0199A547FE6B}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A186D6-D624-4788-86E8-1FD35F9E5DB9}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="54.85546875" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,128 +695,228 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G5" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/VMware.xlsx
+++ b/VMware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdominic\Documents\GitHub\AutomatedESX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D75B2B-5A9B-40FD-A7B3-6411911E424A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3C380-3F9B-4E0D-B5D9-CD991DFEF3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
+    <workbookView xWindow="11424" yWindow="1812" windowWidth="21600" windowHeight="11298" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
   </bookViews>
   <sheets>
     <sheet name="ESXHosts" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>ESXHostname</t>
   </si>
@@ -99,7 +104,7 @@
     <t>192.168.30.2</t>
   </si>
   <si>
-    <t>192.168.30.3</t>
+    <t>mpx.vmhba32:C0:T0:L0</t>
   </si>
   <si>
     <t>tataoui.com</t>
@@ -108,6 +113,9 @@
     <t>dwcadmin</t>
   </si>
   <si>
+    <t>192.168.10.40</t>
+  </si>
+  <si>
     <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
   </si>
   <si>
@@ -117,13 +125,13 @@
     <t>esx03.tataoui.com</t>
   </si>
   <si>
-    <t>mpx.vmhba33:C0:T0:L0</t>
-  </si>
-  <si>
-    <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HGST-HDD_VSAN</t>
-  </si>
-  <si>
-    <t>SATA_SSD-SSD_VM_AD Samsung-SSD_VM_VMware TOSHIBA-HDD_VM</t>
+    <t>naa.61866da07676f7002d2057de065d2730</t>
+  </si>
+  <si>
+    <t>VMware123!</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
   </si>
   <si>
     <t>esx04.tataoui.com</t>
@@ -132,7 +140,10 @@
     <t>esx05.tataoui.com</t>
   </si>
   <si>
-    <t>SATA_SSD-SSD_VM Samsung_SSD_980-SSD_VCF Samsung_SSD_860-SSD_VSAN HITACHI-HDD_VSAN</t>
+    <t>MZXLR3T2HBLS2D000H3-VCF_1</t>
+  </si>
+  <si>
+    <t>192.168.10.10</t>
   </si>
   <si>
     <t>192.168.10.11</t>
@@ -145,15 +156,6 @@
   </si>
   <si>
     <t>192.168.10.14</t>
-  </si>
-  <si>
-    <t>192.168.10.15</t>
-  </si>
-  <si>
-    <t>VMware123!</t>
-  </si>
-  <si>
-    <t>192.168.10.10</t>
   </si>
 </sst>
 </file>
@@ -203,9 +205,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +234,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -261,7 +271,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ESXHosts"/>
@@ -302,41 +312,41 @@
       <sheetName val="VMware"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
+      <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -640,22 +650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A186D6-D624-4788-86E8-1FD35F9E5DB9}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="65.7109375" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,226 +709,227 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VMware.xlsx
+++ b/VMware.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3C380-3F9B-4E0D-B5D9-CD991DFEF3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12335A0B-1D02-4DFB-954A-C42C5708E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="1812" windowWidth="21600" windowHeight="11298" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
   </bookViews>
   <sheets>
     <sheet name="ESXHosts" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
   <si>
     <t>ESXHostname</t>
   </si>
@@ -125,9 +125,6 @@
     <t>esx03.tataoui.com</t>
   </si>
   <si>
-    <t>naa.61866da07676f7002d2057de065d2730</t>
-  </si>
-  <si>
     <t>VMware123!</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>esx05.tataoui.com</t>
   </si>
   <si>
-    <t>MZXLR3T2HBLS2D000H3-VCF_1</t>
-  </si>
-  <si>
-    <t>192.168.10.10</t>
-  </si>
-  <si>
     <t>192.168.10.11</t>
   </si>
   <si>
@@ -156,6 +147,78 @@
   </si>
   <si>
     <t>192.168.10.14</t>
+  </si>
+  <si>
+    <t>naa.500a07510c12161b</t>
+  </si>
+  <si>
+    <t>naa.61866d-Repository MZXLR3T2HBLS2D000H3-VCF_1</t>
+  </si>
+  <si>
+    <t>esx06.tataoui.com</t>
+  </si>
+  <si>
+    <t>naa.500a0751095f1055</t>
+  </si>
+  <si>
+    <t>naa.61866d-Repository MZXLR3T2HBLS2D000H3-VCF_2</t>
+  </si>
+  <si>
+    <t>esx11.tataoui.com</t>
+  </si>
+  <si>
+    <t>192.168.10.15</t>
+  </si>
+  <si>
+    <t>192.168.10.16</t>
+  </si>
+  <si>
+    <t>192.168.10.17</t>
+  </si>
+  <si>
+    <t>192.168.10.18</t>
+  </si>
+  <si>
+    <t>esx12.tataoui.com</t>
+  </si>
+  <si>
+    <t>esx13.tataoui.com</t>
+  </si>
+  <si>
+    <t>t10.ATA_____SATA_SSD________________________________21110524000180______</t>
+  </si>
+  <si>
+    <t>t10.ATA_____SATA_SSD________________________________19080124004062______</t>
+  </si>
+  <si>
+    <t>SATA-Repository Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
+  </si>
+  <si>
+    <t>192.168.10.19</t>
+  </si>
+  <si>
+    <t>t10.ATA_____SATA_SSD________________________________20071324000117______</t>
+  </si>
+  <si>
+    <t>t10.ATA_____SATA_SSD________________________________18082224001121______</t>
+  </si>
+  <si>
+    <t>SATA_SSD-Repository Samsung_SSD-VCF_3</t>
+  </si>
+  <si>
+    <t>SATA_SSD-Repository Samsung_SSD_980-VCF_3</t>
+  </si>
+  <si>
+    <t>vmnic0</t>
+  </si>
+  <si>
+    <t>vmnic2</t>
+  </si>
+  <si>
+    <t>vmnic4</t>
+  </si>
+  <si>
+    <t>MgmtNIC</t>
   </si>
 </sst>
 </file>
@@ -650,286 +713,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A186D6-D624-4788-86E8-1FD35F9E5DB9}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="74" customWidth="1"/>
+    <col min="11" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F10" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
+      <c r="O10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VMware.xlsx
+++ b/VMware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdominic\Documents\GitHub\AutomatedESX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12335A0B-1D02-4DFB-954A-C42C5708E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4744EE-C14E-4706-9A5C-9B0812ED050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
+    <workbookView xWindow="3945" yWindow="3255" windowWidth="22965" windowHeight="11295" xr2:uid="{B8414AEB-A0D4-4253-814D-009E484C0E11}"/>
   </bookViews>
   <sheets>
     <sheet name="ESXHosts" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>ESXHostname</t>
   </si>
@@ -101,9 +101,6 @@
     <t>192.168.10.2</t>
   </si>
   <si>
-    <t>192.168.30.2</t>
-  </si>
-  <si>
     <t>mpx.vmhba32:C0:T0:L0</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>dwcadmin</t>
   </si>
   <si>
-    <t>192.168.10.40</t>
-  </si>
-  <si>
     <t>SATA_SSD-SSD_VM Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>192.168.10.17</t>
   </si>
   <si>
-    <t>192.168.10.18</t>
-  </si>
-  <si>
     <t>esx12.tataoui.com</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>SATA-Repository Samsung-SSD_VSAN HITACHI-HDD_VSAN</t>
   </si>
   <si>
-    <t>192.168.10.19</t>
-  </si>
-  <si>
     <t>t10.ATA_____SATA_SSD________________________________20071324000117______</t>
   </si>
   <si>
@@ -219,6 +207,33 @@
   </si>
   <si>
     <t>MgmtNIC</t>
+  </si>
+  <si>
+    <t>192.168.10.30</t>
+  </si>
+  <si>
+    <t>192.168.10.21</t>
+  </si>
+  <si>
+    <t>192.168.10.22</t>
+  </si>
+  <si>
+    <t>192.168.10.23</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>ESXi 8.0 U2</t>
+  </si>
+  <si>
+    <t>ESXi 7.0 U2</t>
+  </si>
+  <si>
+    <t>192.168.10.25</t>
+  </si>
+  <si>
+    <t>esx07.tataoui.com</t>
   </si>
 </sst>
 </file>
@@ -713,484 +728,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A186D6-D624-4788-86E8-1FD35F9E5DB9}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="74" customWidth="1"/>
-    <col min="11" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="74" customWidth="1"/>
+    <col min="12" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G9" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>37</v>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
